--- a/Results/Syn/syn_data_4.xlsx
+++ b/Results/Syn/syn_data_4.xlsx
@@ -50,10 +50,10 @@
     <t>τ_l</t>
   </si>
   <si>
-    <t>N_l</t>
+    <t>α</t>
   </si>
   <si>
-    <t>N_D</t>
+    <t>β</t>
   </si>
   <si>
     <t>r</t>

--- a/Results/Syn/syn_data_4.xlsx
+++ b/Results/Syn/syn_data_4.xlsx
@@ -101,7 +101,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>ci95</t>
+    <t>cihw95</t>
   </si>
   <si>
     <t>lb</t>

--- a/Results/Syn/syn_data_4.xlsx
+++ b/Results/Syn/syn_data_4.xlsx
@@ -978,52 +978,52 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>2.100286299779495</v>
+        <v>2.539478373300974</v>
       </c>
       <c r="D8">
-        <v>0.29091091476117376</v>
+        <v>0.3605967871627867</v>
       </c>
       <c r="E8">
-        <v>0.04445183693881238</v>
+        <v>0.04430463410188227</v>
       </c>
       <c r="F8">
-        <v>0.032538441096326996</v>
+        <v>0.033209485299853216</v>
       </c>
       <c r="G8">
-        <v>0.27435039225203733</v>
+        <v>0.2815766669251784</v>
       </c>
       <c r="H8">
-        <v>0.4356134841762645</v>
+        <v>0.44951121308371333</v>
       </c>
       <c r="I8">
-        <v>1.4362384033944053</v>
+        <v>2.1628771783713123</v>
       </c>
       <c r="J8">
-        <v>18.194894794961282</v>
+        <v>25.065688590512828</v>
       </c>
       <c r="K8">
-        <v>0.11620150977073174</v>
+        <v>0.1621165072979564</v>
       </c>
       <c r="L8">
-        <v>7.535830296838836</v>
+        <v>11.459215729706713</v>
       </c>
       <c r="M8">
-        <v>7.784455055372695e-7</v>
+        <v>8.856406139612502e-7</v>
       </c>
       <c r="N8">
-        <v>6.785749158330744e-6</v>
+        <v>9.866047723969794e-6</v>
       </c>
       <c r="O8">
-        <v>0.00022586338859282426</v>
+        <v>0.00034249640779778634</v>
       </c>
       <c r="P8">
-        <v>0.003605926388729036</v>
+        <v>0.0054801092825895945</v>
       </c>
       <c r="Q8">
-        <v>0.024413103820849755</v>
+        <v>0.037086094050344735</v>
       </c>
       <c r="R8">
-        <v>0.09212343640776333</v>
+        <v>0.14037621527203686</v>
       </c>
     </row>
     <row r="9" spans="1:18">
